--- a/ASR Performance Comparision between Hybrid & E2E models.xlsx
+++ b/ASR Performance Comparision between Hybrid & E2E models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cerence-my.sharepoint.com/personal/daijun_chen_cerence_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cerence-my.sharepoint.com/personal/daijun_chen_cerence_com/Documents/ASR/oneASR cloud _ NCS comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFEBC19D-6A12-439C-8A65-9EB4F75D7229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F6CADAB6-367A-4964-BE25-44A920821C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{294469B6-5566-4123-A23B-FFB87856CF98}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A4F9660B-A5F6-4B89-B809-88CA78E61375}"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{A4F9660B-A5F6-4B89-B809-88CA78E61375}"/>
   </bookViews>
   <sheets>
     <sheet name="cmn-CHN model 1-4 " sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Sentences</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>Regression Test Sets</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>WERs on Car Domain Test Sets</t>
+  </si>
+  <si>
+    <t>test 70</t>
   </si>
 </sst>
 </file>
@@ -780,11 +780,12 @@
   <dimension ref="C1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
@@ -796,7 +797,7 @@
   <sheetData>
     <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
@@ -814,27 +815,27 @@
     </row>
     <row r="3" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>3962</v>
@@ -854,7 +855,7 @@
     </row>
     <row r="5" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>1371</v>
@@ -874,7 +875,7 @@
     </row>
     <row r="6" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>1855</v>
@@ -894,7 +895,7 @@
     </row>
     <row r="7" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>5848</v>
@@ -914,7 +915,7 @@
     </row>
     <row r="8" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>2272</v>
@@ -934,7 +935,7 @@
     </row>
     <row r="9" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>10046</v>
@@ -954,7 +955,7 @@
     </row>
     <row r="10" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>8453</v>
@@ -974,7 +975,7 @@
     </row>
     <row r="11" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>11485</v>
@@ -994,7 +995,7 @@
     </row>
     <row r="12" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>2095</v>
@@ -1014,7 +1015,7 @@
     </row>
     <row r="13" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>1329</v>
@@ -1034,7 +1035,7 @@
     </row>
     <row r="14" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1">
         <v>1762</v>
@@ -1054,7 +1055,7 @@
     </row>
     <row r="15" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>1372</v>
@@ -1074,7 +1075,7 @@
     </row>
     <row r="16" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1">
         <v>1911</v>
@@ -1094,7 +1095,7 @@
     </row>
     <row r="17" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1">
         <v>1911</v>
@@ -1114,7 +1115,7 @@
     </row>
     <row r="18" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1">
         <v>5873</v>
@@ -1134,7 +1135,7 @@
     </row>
     <row r="19" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>5281</v>
@@ -1154,7 +1155,7 @@
     </row>
     <row r="20" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1">
         <v>991</v>
@@ -1174,7 +1175,7 @@
     </row>
     <row r="21" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1">
         <v>10775</v>
@@ -1194,7 +1195,7 @@
     </row>
     <row r="22" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>3909</v>
@@ -1214,7 +1215,7 @@
     </row>
     <row r="23" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1">
         <v>5905</v>
@@ -1234,7 +1235,7 @@
     </row>
     <row r="24" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1">
         <v>9200</v>
@@ -1254,7 +1255,7 @@
     </row>
     <row r="25" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
         <v>7865</v>
@@ -1274,7 +1275,7 @@
     </row>
     <row r="26" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1">
         <v>9200</v>
@@ -1294,7 +1295,7 @@
     </row>
     <row r="27" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
         <v>8132</v>
@@ -1314,7 +1315,7 @@
     </row>
     <row r="28" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1">
         <v>67220</v>
@@ -1334,7 +1335,7 @@
     </row>
     <row r="29" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1">
         <v>68768</v>
@@ -1354,7 +1355,7 @@
     </row>
     <row r="30" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1">
         <v>67220</v>
@@ -1374,7 +1375,7 @@
     </row>
     <row r="31" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>62780</v>
@@ -1394,7 +1395,7 @@
     </row>
     <row r="32" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1">
         <v>18978</v>
@@ -1414,7 +1415,7 @@
     </row>
     <row r="33" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="1">
         <v>2154</v>
@@ -1434,7 +1435,7 @@
     </row>
     <row r="34" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1">
         <v>8653</v>
@@ -1454,7 +1455,7 @@
     </row>
     <row r="35" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1">
         <v>1433</v>
@@ -1474,7 +1475,7 @@
     </row>
     <row r="36" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1">
         <v>5515</v>
@@ -1494,7 +1495,7 @@
     </row>
     <row r="37" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1">
         <v>330</v>
@@ -1514,7 +1515,7 @@
     </row>
     <row r="38" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1">
         <v>1926</v>
@@ -1534,7 +1535,7 @@
     </row>
     <row r="39" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="1">
         <v>932</v>
@@ -1554,7 +1555,7 @@
     </row>
     <row r="40" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="1">
         <v>1918</v>
@@ -1574,7 +1575,7 @@
     </row>
     <row r="41" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1">
         <v>1274</v>
@@ -1594,7 +1595,7 @@
     </row>
     <row r="42" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1">
         <v>378</v>
@@ -1614,7 +1615,7 @@
     </row>
     <row r="43" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1">
         <v>363</v>
@@ -1634,7 +1635,7 @@
     </row>
     <row r="44" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1">
         <v>6868</v>
@@ -1654,7 +1655,7 @@
     </row>
     <row r="45" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1">
         <v>2783</v>
@@ -1674,7 +1675,7 @@
     </row>
     <row r="46" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1">
         <v>661</v>
@@ -1694,7 +1695,7 @@
     </row>
     <row r="47" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1">
         <v>658</v>
@@ -1714,7 +1715,7 @@
     </row>
     <row r="48" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="1">
         <v>2808</v>
@@ -1734,7 +1735,7 @@
     </row>
     <row r="49" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="1">
         <v>21357</v>
@@ -1753,24 +1754,12 @@
       </c>
     </row>
     <row r="50" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>467780</v>
-      </c>
-      <c r="E50" s="5">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="F50" s="5">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="G50" s="5">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="H50" s="5">
-        <v>4.1700000000000001E-2</v>
-      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C51" s="7"/>
@@ -1790,7 +1779,7 @@
     </row>
     <row r="53" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
@@ -1808,27 +1797,27 @@
     </row>
     <row r="55" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
@@ -1848,7 +1837,7 @@
     </row>
     <row r="57" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
         <v>39</v>
@@ -1868,7 +1857,7 @@
     </row>
     <row r="58" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>16</v>
@@ -1888,7 +1877,7 @@
     </row>
     <row r="59" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
         <v>12</v>
@@ -1908,7 +1897,7 @@
     </row>
     <row r="60" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -1928,7 +1917,7 @@
     </row>
     <row r="61" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1">
         <v>109</v>
@@ -1948,7 +1937,7 @@
     </row>
     <row r="62" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1">
         <v>9</v>
@@ -1968,7 +1957,7 @@
     </row>
     <row r="63" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="1">
         <v>31</v>
@@ -1988,7 +1977,7 @@
     </row>
     <row r="64" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" s="1">
         <v>42</v>
@@ -2008,7 +1997,7 @@
     </row>
     <row r="65" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -2028,7 +2017,7 @@
     </row>
     <row r="66" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1">
         <v>135</v>
@@ -2048,7 +2037,7 @@
     </row>
     <row r="67" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D67" s="1">
         <v>16</v>
@@ -2068,7 +2057,7 @@
     </row>
     <row r="68" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2088,7 +2077,7 @@
     </row>
     <row r="69" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
@@ -2108,7 +2097,7 @@
     </row>
     <row r="70" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="1">
         <v>51</v>
@@ -2128,7 +2117,7 @@
     </row>
     <row r="71" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="1">
         <v>6</v>
@@ -2148,7 +2137,7 @@
     </row>
     <row r="72" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="1">
         <v>7</v>
@@ -2168,7 +2157,7 @@
     </row>
     <row r="73" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="1">
         <v>8</v>
@@ -2188,7 +2177,7 @@
     </row>
     <row r="74" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2208,7 +2197,7 @@
     </row>
     <row r="75" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1">
         <v>477</v>
@@ -2228,7 +2217,7 @@
     </row>
     <row r="76" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D76" s="1">
         <v>91</v>
@@ -2248,7 +2237,7 @@
     </row>
     <row r="77" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="1">
         <v>23</v>
@@ -2268,27 +2257,27 @@
     </row>
     <row r="78" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="1">
         <v>1094</v>
       </c>
-      <c r="E78" s="1">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F78" s="1">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G78" s="1">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="H78" s="1">
-        <v>6.7000000000000004E-2</v>
+      <c r="E78" s="3">
+        <v>1.32E-3</v>
+      </c>
+      <c r="F78" s="3">
+        <v>6.6E-4</v>
+      </c>
+      <c r="G78" s="3">
+        <v>6.6E-4</v>
+      </c>
+      <c r="H78" s="3">
+        <v>6.7000000000000002E-4</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D79" s="2">
         <v>42073</v>
